--- a/service/report/invoice_agent.xlsx
+++ b/service/report/invoice_agent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">TDSheet!$A$1:$BE$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">TDSheet!$A$1:$BE$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">TDSheet!$A$1:$BE$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">TDSheet!$A$1:$BE$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -168,7 +169,7 @@
     <t xml:space="preserve">Генеральный директор</t>
   </si>
   <si>
-    <t xml:space="preserve">Махлонов Д.В.</t>
+    <t xml:space="preserve">Туревич М.В.</t>
   </si>
   <si>
     <t xml:space="preserve">должность</t>
@@ -645,23 +646,23 @@
   <dimension ref="A1:BE42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="BA37" activeCellId="0" sqref="BA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.43949044585987"/>
-    <col collapsed="false" hidden="false" max="33" min="2" style="1" width="4.31210191082803"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="2.69426751592357"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="1" width="1.43949044585987"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="1" width="2.69426751592357"/>
-    <col collapsed="false" hidden="false" max="40" min="39" style="1" width="1.43949044585987"/>
-    <col collapsed="false" hidden="false" max="42" min="41" style="1" width="2.69426751592357"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="1.61783439490446"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="3.05732484076433"/>
-    <col collapsed="false" hidden="false" max="52" min="45" style="1" width="2.69426751592357"/>
-    <col collapsed="false" hidden="false" max="57" min="53" style="1" width="4.31210191082803"/>
-    <col collapsed="false" hidden="false" max="1025" min="58" style="0" width="10.968152866242"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="33" min="2" style="1" width="4.85350318471338"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="42" min="41" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="1.79617834394904"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="3.23566878980892"/>
+    <col collapsed="false" hidden="false" max="52" min="45" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="57" min="53" style="1" width="4.85350318471338"/>
+    <col collapsed="false" hidden="false" max="1025" min="58" style="0" width="12.4012738853503"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="43.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2818,7 +2819,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
